--- a/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="170">
   <si>
     <t>Asignatura</t>
   </si>
@@ -175,12 +180,6 @@
     <t>Propiedades de la multiplicación de decimales</t>
   </si>
   <si>
-    <t>Adición y sustracción de números decimales</t>
-  </si>
-  <si>
-    <t>Practicar adiciones y sustracciones con números decimales</t>
-  </si>
-  <si>
     <t>Practicar la multiplicación de números decimales</t>
   </si>
   <si>
@@ -205,15 +204,6 @@
     <t>Operar con números decimales</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactivo que expone los algoritmos de adición y sustracción de decimales a partir de ejemplos concretos. </t>
-  </si>
-  <si>
-    <t>Ejercicios de práctica de adición y sustracción de números decimales, con las operaciones organizadas verticalmente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que le permite al estudiante identificar las propiedades de la adición en ejemplos concretos. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Interactivo que expone las propiedades de la multiplicación, generalizándolas y dando ejemplos específicos. </t>
   </si>
   <si>
@@ -298,30 +288,15 @@
     <t>En la presentación colocar imágenes que rerpesenten situaciones que se representen con números decimales, por ejemplo, una competencia de natación oo atletismo. Precios. Cantidades en gramos o kilogramos, etc. En cada ficha dar la explicación del algoritmo correspondiente y mostrar el desarrollo de una situación. Además incluir si es posible las propiedades. Proponer practica.</t>
   </si>
   <si>
-    <t>Dar ejemplos en los cuales se apliquen las propiedades de la adición de númerps decimales. Lso estudiantes deberán identicar cuál es la propiedad que corresponde.</t>
-  </si>
-  <si>
     <t>Ejercicios de practica de adición y sustracción de números decimales</t>
   </si>
   <si>
     <t>En el motor aleatorio, seleccionar las opciones suma y resta (únicamente). Seleccionar nivel 2 en complejidad.</t>
   </si>
   <si>
-    <t>Practica la adición y sustracción de números decimales</t>
-  </si>
-  <si>
     <t>Identifica las propiedades de la adición de números decimales</t>
   </si>
   <si>
-    <t>Actividad para resolver problemas de sumas y restas de números decimales.</t>
-  </si>
-  <si>
-    <t>Aplica la suma y la resta para resolver situaciones con números decimales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para aplicar sumas y la restas de decimales en la resolcuión de problemas </t>
-  </si>
-  <si>
     <t>La multiplicación de números decimales</t>
   </si>
   <si>
@@ -521,6 +496,42 @@
   </si>
   <si>
     <t>M101ap</t>
+  </si>
+  <si>
+    <t>La adición y la sustracción de números decimales</t>
+  </si>
+  <si>
+    <t>Interactivo que explica los algoritmos de adición y sustracción de decimales</t>
+  </si>
+  <si>
+    <t>Practica la adición y la sustracción de números decimales</t>
+  </si>
+  <si>
+    <t>Actividad de práctica de la adición y la sustracción de números decimales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar las propiedades de la adición </t>
+  </si>
+  <si>
+    <t>Dar ejemplos en los cuales se apliquen las propiedades de la adición de númerps decimales. Los estudiantes deberán identicar cuál es la propiedad que corresponde.</t>
+  </si>
+  <si>
+    <t>Practica adiciones y sustracciones con números decimales</t>
+  </si>
+  <si>
+    <t>Resuelve problemas de adición y sustracción de números decimales</t>
+  </si>
+  <si>
+    <t>Actividad para resolver problemas de adición y sustracción de decimales</t>
+  </si>
+  <si>
+    <t>Analiza situaciones de adición y sustracción con números decimales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para analizar situaciones de adición y sustracción de decimales </t>
+  </si>
+  <si>
+    <t>Deben usarse las imágenes como información para los problemas, preferiblemente contextos reales</t>
   </si>
 </sst>
 </file>
@@ -789,6 +800,39 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,39 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,110 +1148,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="36" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="72.1640625" style="36" customWidth="1"/>
     <col min="8" max="9" width="14" style="36"/>
-    <col min="10" max="10" width="22.85546875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="93" style="35" customWidth="1"/>
     <col min="11" max="11" width="17" style="35" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="35" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="35" customWidth="1"/>
     <col min="13" max="14" width="14" style="35"/>
     <col min="15" max="15" width="41" style="35" customWidth="1"/>
     <col min="16" max="16" width="16" style="36" customWidth="1"/>
     <col min="17" max="18" width="14" style="36"/>
-    <col min="19" max="19" width="20.7109375" style="36" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" style="36" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="36" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="36" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" style="36" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="36" customWidth="1"/>
     <col min="22" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="46"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="37" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="49" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="43"/>
+    <row r="2" spans="1:23" ht="15" customHeight="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1249,14 +1260,14 @@
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="38"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="49"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1267,12 +1278,12 @@
         <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1281,7 +1292,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>30</v>
@@ -1294,7 +1305,7 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>29</v>
@@ -1309,14 +1320,14 @@
         <v>34</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="W3" s="22"/>
     </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1327,12 +1338,12 @@
         <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="23"/>
       <c r="G4" s="10" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H4" s="24">
         <v>2</v>
@@ -1341,7 +1352,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>29</v>
@@ -1362,17 +1373,17 @@
         <v>38</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W4" s="22"/>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1383,12 +1394,12 @@
         <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="23"/>
       <c r="G5" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -1397,7 +1408,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>30</v>
@@ -1410,7 +1421,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>30</v>
@@ -1425,14 +1436,14 @@
         <v>36</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U5" s="20" t="s">
         <v>37</v>
       </c>
       <c r="W5" s="22"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1443,12 +1454,12 @@
         <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="23"/>
       <c r="G6" s="10" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="H6" s="24">
         <v>4</v>
@@ -1457,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>30</v>
@@ -1470,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>29</v>
@@ -1482,17 +1493,17 @@
         <v>35</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="W6" s="22"/>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1503,12 +1514,12 @@
         <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="23"/>
       <c r="G7" s="10" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -1517,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>29</v>
@@ -1538,17 +1549,17 @@
         <v>38</v>
       </c>
       <c r="S7" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W7" s="22"/>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1559,12 +1570,12 @@
         <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="23"/>
       <c r="G8" s="10" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -1573,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>30</v>
@@ -1585,7 +1596,9 @@
       <c r="N8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="P8" s="17" t="s">
         <v>29</v>
       </c>
@@ -1606,7 +1619,7 @@
       </c>
       <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1617,14 +1630,14 @@
         <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H9" s="11">
         <v>7</v>
@@ -1633,7 +1646,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>29</v>
@@ -1654,17 +1667,17 @@
         <v>38</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1675,12 +1688,12 @@
         <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="23"/>
       <c r="G10" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -1689,7 +1702,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>30</v>
@@ -1702,7 +1715,7 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>29</v>
@@ -1717,14 +1730,14 @@
         <v>34</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="W10" s="22"/>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1735,12 +1748,12 @@
         <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="23"/>
       <c r="G11" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="11">
         <v>9</v>
@@ -1749,7 +1762,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>29</v>
@@ -1770,17 +1783,17 @@
         <v>38</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T11" s="25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W11" s="22"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1791,7 +1804,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="23"/>
@@ -1805,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>29</v>
@@ -1826,17 +1839,17 @@
         <v>38</v>
       </c>
       <c r="S12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="T12" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="U12" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W12" s="22"/>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1847,12 +1860,12 @@
         <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="23"/>
       <c r="G13" s="27" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
@@ -1861,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>30</v>
@@ -1874,7 +1887,7 @@
         <v>25</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>29</v>
@@ -1889,14 +1902,14 @@
         <v>36</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="U13" s="20" t="s">
         <v>37</v>
       </c>
       <c r="W13" s="22"/>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1907,14 +1920,14 @@
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -1923,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>29</v>
@@ -1944,17 +1957,17 @@
         <v>38</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="T14" s="25" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1965,12 +1978,12 @@
         <v>49</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="23"/>
       <c r="G15" s="27" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -1979,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>30</v>
@@ -1992,7 +2005,7 @@
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>29</v>
@@ -2007,14 +2020,14 @@
         <v>34</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="W15" s="22"/>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -2025,12 +2038,12 @@
         <v>49</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="23"/>
       <c r="G16" s="27" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2039,7 +2052,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>29</v>
@@ -2050,7 +2063,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>29</v>
@@ -2062,17 +2075,17 @@
         <v>38</v>
       </c>
       <c r="S16" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T16" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -2083,12 +2096,12 @@
         <v>49</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2097,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>30</v>
@@ -2110,7 +2123,7 @@
         <v>24</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>29</v>
@@ -2132,7 +2145,7 @@
       </c>
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -2143,12 +2156,12 @@
         <v>49</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="23"/>
       <c r="G18" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="24">
         <v>16</v>
@@ -2157,7 +2170,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>29</v>
@@ -2178,17 +2191,17 @@
         <v>38</v>
       </c>
       <c r="S18" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T18" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U18" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2199,12 +2212,12 @@
         <v>49</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="23"/>
       <c r="G19" s="27" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H19" s="11">
         <v>17</v>
@@ -2213,7 +2226,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>29</v>
@@ -2224,7 +2237,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="17"/>
       <c r="O19" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>30</v>
@@ -2236,17 +2249,17 @@
         <v>38</v>
       </c>
       <c r="S19" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T19" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W19" s="22"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -2257,14 +2270,14 @@
         <v>49</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="27" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H20" s="24">
         <v>18</v>
@@ -2273,7 +2286,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>29</v>
@@ -2294,17 +2307,17 @@
         <v>38</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="T20" s="25" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W20" s="22"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2333,7 @@
       <c r="E21" s="26"/>
       <c r="F21" s="23"/>
       <c r="G21" s="27" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2329,7 +2342,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>30</v>
@@ -2342,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P21" s="17" t="s">
         <v>29</v>
@@ -2357,14 +2370,14 @@
         <v>36</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="U21" s="20" t="s">
         <v>37</v>
       </c>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2393,7 @@
       <c r="E22" s="26"/>
       <c r="F22" s="23"/>
       <c r="G22" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2389,7 +2402,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>30</v>
@@ -2402,7 +2415,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="P22" s="17" t="s">
         <v>29</v>
@@ -2417,14 +2430,14 @@
         <v>36</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="U22" s="20" t="s">
         <v>37</v>
       </c>
       <c r="W22" s="22"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2455,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="27" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -2451,7 +2464,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>29</v>
@@ -2462,7 +2475,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="17"/>
       <c r="O23" s="16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P23" s="17" t="s">
         <v>29</v>
@@ -2474,17 +2487,17 @@
         <v>38</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="U23" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W23" s="22"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -2495,12 +2508,12 @@
         <v>49</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="23"/>
       <c r="G24" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H24" s="24">
         <v>22</v>
@@ -2509,7 +2522,7 @@
         <v>32</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>29</v>
@@ -2530,17 +2543,17 @@
         <v>38</v>
       </c>
       <c r="S24" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U24" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W24" s="22"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -2551,12 +2564,12 @@
         <v>49</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="23"/>
       <c r="G25" s="27" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H25" s="11">
         <v>23</v>
@@ -2565,7 +2578,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>29</v>
@@ -2586,17 +2599,17 @@
         <v>38</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T25" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W25" s="22"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -2607,12 +2620,12 @@
         <v>49</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="23"/>
       <c r="G26" s="27" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -2621,7 +2634,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>29</v>
@@ -2642,17 +2655,17 @@
         <v>38</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T26" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="U26" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -2663,12 +2676,12 @@
         <v>49</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="23"/>
       <c r="G27" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -2677,7 +2690,7 @@
         <v>32</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>29</v>
@@ -2698,17 +2711,17 @@
         <v>38</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T27" s="25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W27" s="22"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -2719,12 +2732,12 @@
         <v>49</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="23"/>
       <c r="G28" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -2733,7 +2746,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>29</v>
@@ -2744,7 +2757,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="17"/>
       <c r="O28" s="16" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P28" s="17" t="s">
         <v>29</v>
@@ -2756,17 +2769,17 @@
         <v>38</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T28" s="25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2777,12 +2790,12 @@
         <v>49</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="23"/>
       <c r="G29" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H29" s="11">
         <v>27</v>
@@ -2791,7 +2804,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>29</v>
@@ -2802,7 +2815,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="17"/>
       <c r="O29" s="16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P29" s="17" t="s">
         <v>30</v>
@@ -2814,17 +2827,17 @@
         <v>38</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2835,14 +2848,14 @@
         <v>49</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H30" s="24">
         <v>28</v>
@@ -2851,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>29</v>
@@ -2872,17 +2885,17 @@
         <v>38</v>
       </c>
       <c r="S30" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W30" s="22"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -2893,12 +2906,12 @@
         <v>49</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H31" s="11">
         <v>29</v>
@@ -2907,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>29</v>
@@ -2918,7 +2931,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="17"/>
       <c r="O31" s="16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P31" s="17" t="s">
         <v>29</v>
@@ -2930,17 +2943,17 @@
         <v>38</v>
       </c>
       <c r="S31" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T31" s="25" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W31" s="22"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -2951,12 +2964,12 @@
         <v>49</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="23"/>
       <c r="G32" s="32" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -2965,7 +2978,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>29</v>
@@ -2976,7 +2989,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="17"/>
       <c r="O32" s="16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P32" s="17" t="s">
         <v>29</v>
@@ -2988,17 +3001,17 @@
         <v>38</v>
       </c>
       <c r="S32" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T32" s="25" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -3009,7 +3022,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="23"/>
@@ -3023,7 +3036,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>30</v>
@@ -3044,7 +3057,7 @@
       <c r="U33" s="20"/>
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3068,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="23"/>
@@ -3069,7 +3082,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>29</v>
@@ -3079,7 +3092,7 @@
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>41</v>
@@ -3104,7 +3117,7 @@
       </c>
       <c r="W34" s="22"/>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
@@ -3115,12 +3128,12 @@
         <v>49</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="23"/>
       <c r="G35" s="27" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H35" s="11">
         <v>33</v>
@@ -3137,10 +3150,10 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="P35" s="17" t="s">
         <v>30</v>
@@ -3155,20 +3168,20 @@
         <v>36</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="U35" s="20" t="s">
         <v>37</v>
       </c>
       <c r="W35" s="22"/>
     </row>
-    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15" customHeight="1">
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15" customHeight="1">
       <c r="W37" s="2"/>
     </row>
-    <row r="76" spans="10:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:12" ht="15" customHeight="1">
       <c r="J76" s="35" t="s">
         <v>19</v>
       </c>
@@ -3178,6 +3191,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3192,12 +3211,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V10">
@@ -3241,7 +3254,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3251,8 +3268,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="14540"/>
+    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="170">
   <si>
     <t>Asignatura</t>
   </si>
@@ -180,57 +180,12 @@
     <t>Propiedades de la multiplicación de decimales</t>
   </si>
   <si>
-    <t>Practicar la multiplicación de números decimales</t>
-  </si>
-  <si>
-    <t>Practicar divisiones de un número entero con divisor decimal</t>
-  </si>
-  <si>
-    <t>Practicar divisiones entre dos números decimales</t>
-  </si>
-  <si>
     <t>Operaciones combinadas con números decimales</t>
   </si>
   <si>
     <t>Conceptos clave sobre las operaciones con números decimales</t>
   </si>
   <si>
-    <t>Resolver problemas redondeando el resultado</t>
-  </si>
-  <si>
-    <t>Resolver problemas desarrollando operaciones combinadas</t>
-  </si>
-  <si>
-    <t>Operar con números decimales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que expone las propiedades de la multiplicación, generalizándolas y dando ejemplos específicos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjunto de ejercicios que permiten la práctica de la división de un número entero entre un número decimal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjunto de ejercicios que permiten la práctica de divisiones entre dos números decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que expone las propiedades de la división partiendo de la generalización, llegando a ejemplos o contraejemplos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que le permite al estudiante proponer contraejemplos que justifiquen la no aplicación de las propiedades de la división de números decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secuencia de imágenes que explica la jerarquía para la resolución de operaciones combinadas, aplicadas en una situación problema. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que resume los principales aspectos básicos sobre las operaciones con números decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que propone situaciones problemas donde se solicita redondear los resultados obtenidos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que propone situaciones problemas donde se aplican operaciones combinadas con números decimales. </t>
-  </si>
-  <si>
     <t>Recurso F7-01</t>
   </si>
   <si>
@@ -300,9 +255,6 @@
     <t>La multiplicación de números decimales</t>
   </si>
   <si>
-    <t>Actividad para consolidar el algoritmo de la multiplicación de números decimales</t>
-  </si>
-  <si>
     <t>Preguntas y/o situaciones realcioandas con el algoritmo de la multiplicación de números decimales. Dar argumentos en las respuestas tanto las acertadas como las equivocadas.</t>
   </si>
   <si>
@@ -333,12 +285,6 @@
     <t>Pedir solicitud gráfica nueva en donde se cambie el signo de división por el colombiano</t>
   </si>
   <si>
-    <t>Ejercicios que permiten la práctica de la división de un número decimal entre un número entero</t>
-  </si>
-  <si>
-    <t>Interactivo en el cual se explican los casos para dividir números decimales</t>
-  </si>
-  <si>
     <t>Practica la división de un número decimal entre un número natural</t>
   </si>
   <si>
@@ -357,15 +303,9 @@
     <t>Practica el redondeo de números decimales</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje:El redondeo de números decimales</t>
-  </si>
-  <si>
     <t>Actividades sobre El redondeo de números decimales</t>
   </si>
   <si>
-    <t>Proponer actividades algoritmicas y otras utilizando contextos.</t>
-  </si>
-  <si>
     <t>Practica operaciones combinadas</t>
   </si>
   <si>
@@ -411,12 +351,6 @@
     <t>Revisar si funciona para colombia. Si no entonces construir uno nuevo</t>
   </si>
   <si>
-    <t>Actividad que propone realizar el procedimiento de deducir un sumando partiendo de otro sumando y el resultado para averiguar el precio de dos juegos</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar el procedimiento de repartir una cantidad de dinero de manera que se cumplan ciertas condiciones</t>
-  </si>
-  <si>
     <t>Mapa conceptual sobre el tema Las operaciones con números decimales</t>
   </si>
   <si>
@@ -435,9 +369,6 @@
     <t>La multiplicación de decimales</t>
   </si>
   <si>
-    <t>Las operaciones combinadas y aplicaciones</t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
@@ -447,18 +378,6 @@
     <t>Actividades sobre La adición y la sustracción de númeos decimales</t>
   </si>
   <si>
-    <t>Ejercicios para prácticar la multiplicación de números decimales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejercicios que permite practicar el redondeo de números decimales a la posición indicada. </t>
-  </si>
-  <si>
-    <t>Actividad que permite  la práctica de la solución de operaciones combinadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejercicios que permite la práctica de la solución de operaciones combinadas. </t>
-  </si>
-  <si>
     <t>Actividades para aplicar las operaciones con números decimales</t>
   </si>
   <si>
@@ -532,13 +451,94 @@
   </si>
   <si>
     <t>Deben usarse las imágenes como información para los problemas, preferiblemente contextos reales</t>
+  </si>
+  <si>
+    <t>Interactivo sobre la multiplicación de números decimales</t>
+  </si>
+  <si>
+    <t>Ejercicios para prácticar la multiplicación de números decimales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para explicar las propiedades de la multiplicación </t>
+  </si>
+  <si>
+    <t>Interactivo en el cual se explica la división entre decimales</t>
+  </si>
+  <si>
+    <t>Actividades para practicar la división de un número decimal entre un natural</t>
+  </si>
+  <si>
+    <t>Practica la división de un número natural entre un decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para practicar la división de un número natural entre un número decimal </t>
+  </si>
+  <si>
+    <t>Resuelve divisiones entre dos números decimales</t>
+  </si>
+  <si>
+    <t>Actividades para practicar la división entre dos números decimales</t>
+  </si>
+  <si>
+    <t>Interactivo que expone aspectos sobre la división y las propiedades</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar la división entre números decimales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejercicios para practicar el redondeo de números decimales </t>
+  </si>
+  <si>
+    <t>Resuelve problemas y redondea el resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad de solución de problemas con números decimales </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El redondeo de números decimales</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes que explica la resolución de operaciones combinadas</t>
+  </si>
+  <si>
+    <t>Actividad para practicar operaciones combinadas</t>
+  </si>
+  <si>
+    <t>Ejercicios para simplificar operaciones combinadas</t>
+  </si>
+  <si>
+    <t>Interactivo que resume aspectos básicos sobre las operaciones con números decimales</t>
+  </si>
+  <si>
+    <t>Resuelve problemas desarrollando operaciones combinadas</t>
+  </si>
+  <si>
+    <t>Actividad para solucionar problemas con operaciones combinadas entre decimales</t>
+  </si>
+  <si>
+    <t>Opera con números decimales</t>
+  </si>
+  <si>
+    <t>Las operaciones combinadas</t>
+  </si>
+  <si>
+    <t>Competencias: los números decimales en el deporte</t>
+  </si>
+  <si>
+    <t>Actividad para mostrar usos de las operaciones con números decimales</t>
+  </si>
+  <si>
+    <t>Proyecto: el peso y la talla</t>
+  </si>
+  <si>
+    <t>Actividad para analizar el peso y la talla de los estudiantes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +581,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -690,10 +706,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -797,6 +821,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,7 +870,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1148,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1176,95 +1211,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="50" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="50"/>
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
@@ -1278,12 +1313,12 @@
         <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1292,7 +1327,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>30</v>
@@ -1305,7 +1340,7 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="16" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>29</v>
@@ -1320,10 +1355,10 @@
         <v>34</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="W3" s="22"/>
     </row>
@@ -1338,12 +1373,12 @@
         <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="23"/>
       <c r="G4" s="10" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="H4" s="24">
         <v>2</v>
@@ -1352,7 +1387,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>29</v>
@@ -1373,13 +1408,13 @@
         <v>38</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W4" s="22"/>
     </row>
@@ -1394,12 +1429,12 @@
         <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="23"/>
       <c r="G5" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -1408,7 +1443,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>30</v>
@@ -1421,7 +1456,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>30</v>
@@ -1436,7 +1471,7 @@
         <v>36</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="U5" s="20" t="s">
         <v>37</v>
@@ -1454,12 +1489,12 @@
         <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="23"/>
       <c r="G6" s="10" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H6" s="24">
         <v>4</v>
@@ -1468,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>30</v>
@@ -1481,7 +1516,7 @@
         <v>26</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>29</v>
@@ -1493,13 +1528,13 @@
         <v>35</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="W6" s="22"/>
     </row>
@@ -1514,12 +1549,12 @@
         <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="23"/>
       <c r="G7" s="10" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -1528,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>29</v>
@@ -1549,13 +1584,13 @@
         <v>38</v>
       </c>
       <c r="S7" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W7" s="22"/>
     </row>
@@ -1570,12 +1605,12 @@
         <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="23"/>
       <c r="G8" s="10" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -1584,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>30</v>
@@ -1597,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>29</v>
@@ -1630,14 +1665,14 @@
         <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="10" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H9" s="11">
         <v>7</v>
@@ -1646,7 +1681,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>29</v>
@@ -1667,13 +1702,13 @@
         <v>38</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="W9" s="22"/>
     </row>
@@ -1688,21 +1723,21 @@
         <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="23"/>
       <c r="G10" s="10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>30</v>
@@ -1715,7 +1750,7 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>29</v>
@@ -1730,10 +1765,10 @@
         <v>34</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="W10" s="22"/>
     </row>
@@ -1748,12 +1783,12 @@
         <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="23"/>
       <c r="G11" s="27" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H11" s="11">
         <v>9</v>
@@ -1762,7 +1797,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>29</v>
@@ -1783,13 +1818,13 @@
         <v>38</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T11" s="25" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W11" s="22"/>
     </row>
@@ -1804,7 +1839,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="23"/>
@@ -1818,7 +1853,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>29</v>
@@ -1839,13 +1874,13 @@
         <v>38</v>
       </c>
       <c r="S12" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T12" s="25" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W12" s="22"/>
     </row>
@@ -1860,12 +1895,12 @@
         <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="23"/>
       <c r="G13" s="27" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
@@ -1874,7 +1909,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>30</v>
@@ -1887,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>29</v>
@@ -1902,7 +1937,7 @@
         <v>36</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="U13" s="20" t="s">
         <v>37</v>
@@ -1920,14 +1955,14 @@
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="27" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -1936,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>29</v>
@@ -1957,13 +1992,13 @@
         <v>38</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T14" s="25" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="W14" s="22"/>
     </row>
@@ -1978,12 +2013,12 @@
         <v>49</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="23"/>
       <c r="G15" s="27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -1992,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>30</v>
@@ -2005,7 +2040,7 @@
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="16" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>29</v>
@@ -2020,10 +2055,10 @@
         <v>34</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="W15" s="22"/>
     </row>
@@ -2038,12 +2073,12 @@
         <v>49</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="23"/>
       <c r="G16" s="27" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2052,7 +2087,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>29</v>
@@ -2063,7 +2098,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>29</v>
@@ -2075,13 +2110,13 @@
         <v>38</v>
       </c>
       <c r="S16" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T16" s="25" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W16" s="22"/>
     </row>
@@ -2096,12 +2131,12 @@
         <v>49</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2110,7 +2145,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>30</v>
@@ -2123,7 +2158,7 @@
         <v>24</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>29</v>
@@ -2156,12 +2191,12 @@
         <v>49</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="23"/>
       <c r="G18" s="27" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="H18" s="24">
         <v>16</v>
@@ -2170,7 +2205,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>29</v>
@@ -2191,13 +2226,13 @@
         <v>38</v>
       </c>
       <c r="S18" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T18" s="25" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U18" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W18" s="22"/>
     </row>
@@ -2212,12 +2247,12 @@
         <v>49</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="23"/>
       <c r="G19" s="27" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H19" s="11">
         <v>17</v>
@@ -2226,7 +2261,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>29</v>
@@ -2237,7 +2272,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="17"/>
       <c r="O19" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>30</v>
@@ -2249,13 +2284,13 @@
         <v>38</v>
       </c>
       <c r="S19" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T19" s="25" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W19" s="22"/>
     </row>
@@ -2270,14 +2305,14 @@
         <v>49</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="27" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H20" s="24">
         <v>18</v>
@@ -2286,7 +2321,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>29</v>
@@ -2307,13 +2342,13 @@
         <v>38</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T20" s="25" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="W20" s="22"/>
     </row>
@@ -2333,7 +2368,7 @@
       <c r="E21" s="26"/>
       <c r="F21" s="23"/>
       <c r="G21" s="27" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2342,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>30</v>
@@ -2355,7 +2390,7 @@
         <v>15</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="P21" s="17" t="s">
         <v>29</v>
@@ -2370,7 +2405,7 @@
         <v>36</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="U21" s="20" t="s">
         <v>37</v>
@@ -2393,7 +2428,7 @@
       <c r="E22" s="26"/>
       <c r="F22" s="23"/>
       <c r="G22" s="27" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2402,7 +2437,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>30</v>
@@ -2415,7 +2450,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="P22" s="17" t="s">
         <v>29</v>
@@ -2430,7 +2465,7 @@
         <v>36</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="U22" s="20" t="s">
         <v>37</v>
@@ -2455,7 +2490,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="27" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -2464,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>29</v>
@@ -2474,9 +2509,7 @@
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="16" t="s">
-        <v>113</v>
-      </c>
+      <c r="O23" s="16"/>
       <c r="P23" s="17" t="s">
         <v>29</v>
       </c>
@@ -2487,13 +2520,13 @@
         <v>38</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="U23" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W23" s="22"/>
     </row>
@@ -2508,12 +2541,12 @@
         <v>49</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="23"/>
       <c r="G24" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H24" s="24">
         <v>22</v>
@@ -2522,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>29</v>
@@ -2543,13 +2576,13 @@
         <v>38</v>
       </c>
       <c r="S24" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="U24" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W24" s="22"/>
     </row>
@@ -2564,12 +2597,12 @@
         <v>49</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="23"/>
       <c r="G25" s="27" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H25" s="11">
         <v>23</v>
@@ -2578,7 +2611,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>29</v>
@@ -2599,13 +2632,13 @@
         <v>38</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T25" s="25" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W25" s="22"/>
     </row>
@@ -2620,12 +2653,12 @@
         <v>49</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="23"/>
       <c r="G26" s="27" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -2634,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>29</v>
@@ -2655,13 +2688,13 @@
         <v>38</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T26" s="25" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="U26" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W26" s="22"/>
     </row>
@@ -2676,12 +2709,12 @@
         <v>49</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="23"/>
       <c r="G27" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" s="11">
         <v>25</v>
@@ -2690,7 +2723,7 @@
         <v>32</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>29</v>
@@ -2711,13 +2744,13 @@
         <v>38</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T27" s="25" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W27" s="22"/>
     </row>
@@ -2732,12 +2765,12 @@
         <v>49</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="23"/>
       <c r="G28" s="27" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -2746,7 +2779,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>29</v>
@@ -2757,7 +2790,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="17"/>
       <c r="O28" s="16" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="P28" s="17" t="s">
         <v>29</v>
@@ -2769,13 +2802,13 @@
         <v>38</v>
       </c>
       <c r="S28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="T28" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="U28" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W28" s="22"/>
     </row>
@@ -2790,12 +2823,12 @@
         <v>49</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="23"/>
       <c r="G29" s="27" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="H29" s="11">
         <v>27</v>
@@ -2804,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>29</v>
@@ -2815,7 +2848,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="17"/>
       <c r="O29" s="16" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="P29" s="17" t="s">
         <v>30</v>
@@ -2827,13 +2860,13 @@
         <v>38</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W29" s="22"/>
     </row>
@@ -2848,14 +2881,14 @@
         <v>49</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="27" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H30" s="24">
         <v>28</v>
@@ -2864,7 +2897,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>29</v>
@@ -2885,13 +2918,13 @@
         <v>38</v>
       </c>
       <c r="S30" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W30" s="22"/>
     </row>
@@ -2906,12 +2939,12 @@
         <v>49</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="H31" s="11">
         <v>29</v>
@@ -2920,10 +2953,10 @@
         <v>30</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>29</v>
+        <v>167</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="L31" s="15" t="s">
         <v>10</v>
@@ -2931,7 +2964,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="17"/>
       <c r="O31" s="16" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="P31" s="17" t="s">
         <v>29</v>
@@ -2943,13 +2976,13 @@
         <v>38</v>
       </c>
       <c r="S31" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T31" s="25" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W31" s="22"/>
     </row>
@@ -2964,12 +2997,12 @@
         <v>49</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="23"/>
       <c r="G32" s="32" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -2978,10 +3011,10 @@
         <v>30</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>29</v>
+        <v>169</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>10</v>
@@ -2989,7 +3022,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="17"/>
       <c r="O32" s="16" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="P32" s="17" t="s">
         <v>29</v>
@@ -3001,13 +3034,13 @@
         <v>38</v>
       </c>
       <c r="S32" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T32" s="25" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W32" s="22"/>
     </row>
@@ -3022,7 +3055,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="23"/>
@@ -3036,7 +3069,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>30</v>
@@ -3068,7 +3101,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="23"/>
@@ -3082,7 +3115,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>29</v>
@@ -3092,7 +3125,7 @@
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="17" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>41</v>
@@ -3128,12 +3161,12 @@
         <v>49</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="23"/>
       <c r="G35" s="27" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H35" s="11">
         <v>33</v>
@@ -3150,10 +3183,10 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="17" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="P35" s="17" t="s">
         <v>30</v>
@@ -3168,7 +3201,7 @@
         <v>36</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="U35" s="20" t="s">
         <v>37</v>
@@ -3254,6 +3287,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="14340"/>
+    <workbookView minimized="1" xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -827,6 +827,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,15 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1211,82 +1211,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="44"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="38" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="39" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1295,11 +1295,11 @@
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="50"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="39"/>
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
@@ -3224,12 +3224,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3244,6 +3238,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V10">
@@ -3287,7 +3287,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14320"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="171">
   <si>
     <t>Asignatura</t>
   </si>
@@ -348,15 +348,9 @@
     <t>Competencias: cálculo y operaciones con decimales</t>
   </si>
   <si>
-    <t>Revisar si funciona para colombia. Si no entonces construir uno nuevo</t>
-  </si>
-  <si>
     <t>Mapa conceptual sobre el tema Las operaciones con números decimales</t>
   </si>
   <si>
-    <t>Evalúa tus conocimientos sobre el tema Las operaciones con números decimales</t>
-  </si>
-  <si>
     <t>Banco de actividades</t>
   </si>
   <si>
@@ -381,9 +375,6 @@
     <t>Actividades para aplicar las operaciones con números decimales</t>
   </si>
   <si>
-    <t xml:space="preserve">Ejercicios y problemas que permiten afianzar la argumentación matemática </t>
-  </si>
-  <si>
     <t>Mostrar números decimales y pedir a los estudiantes que escriban e redondeo a cierta cantidad de cifras.</t>
   </si>
   <si>
@@ -483,9 +474,6 @@
     <t>Interactivo que expone aspectos sobre la división y las propiedades</t>
   </si>
   <si>
-    <t>Actividad para afianzar la división entre números decimales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ejercicios para practicar el redondeo de números decimales </t>
   </si>
   <si>
@@ -532,6 +520,21 @@
   </si>
   <si>
     <t>Actividad para analizar el peso y la talla de los estudiantes</t>
+  </si>
+  <si>
+    <t>Actividad sobre La división entre números decimales</t>
+  </si>
+  <si>
+    <t>Actividades sobre Las operaciones combinadas</t>
+  </si>
+  <si>
+    <t>Plantear información sobre deportes como el atletismo o la formuña uno o la natación y mostrar como las operaciones se usan en estos contextos</t>
+  </si>
+  <si>
+    <t>Proponer que los estudaintes recojan información sobre su peso y su talla, la idea es expliarles que es un promedio y que lo calculen</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre Las operaciones con números decimales</t>
   </si>
 </sst>
 </file>
@@ -827,6 +830,39 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,39 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1183,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1211,82 +1214,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="47"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="38" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="50" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1295,11 +1298,11 @@
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="39"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="50"/>
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
@@ -1313,12 +1316,12 @@
         <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1327,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>30</v>
@@ -1358,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W3" s="22"/>
     </row>
@@ -1373,12 +1376,12 @@
         <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="23"/>
       <c r="G4" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H4" s="24">
         <v>2</v>
@@ -1387,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>29</v>
@@ -1429,7 +1432,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="23"/>
@@ -1443,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>30</v>
@@ -1456,7 +1459,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>30</v>
@@ -1489,12 +1492,12 @@
         <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="23"/>
       <c r="G6" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H6" s="24">
         <v>4</v>
@@ -1528,13 +1531,13 @@
         <v>35</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W6" s="22"/>
     </row>
@@ -1549,12 +1552,12 @@
         <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="23"/>
       <c r="G7" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -1563,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>29</v>
@@ -1605,12 +1608,12 @@
         <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="23"/>
       <c r="G8" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -1619,7 +1622,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>30</v>
@@ -1632,7 +1635,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>29</v>
@@ -1665,10 +1668,10 @@
         <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="10" t="s">
@@ -1681,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>29</v>
@@ -1723,7 +1726,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="23"/>
@@ -1737,7 +1740,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>30</v>
@@ -1768,7 +1771,7 @@
         <v>78</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W10" s="22"/>
     </row>
@@ -1783,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="23"/>
@@ -1797,7 +1800,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>29</v>
@@ -1839,7 +1842,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="23"/>
@@ -1853,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>29</v>
@@ -1895,7 +1898,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="23"/>
@@ -1955,7 +1958,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>31</v>
@@ -2027,7 +2030,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>30</v>
@@ -2058,7 +2061,7 @@
         <v>85</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W15" s="22"/>
     </row>
@@ -2087,7 +2090,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>29</v>
@@ -2136,7 +2139,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2145,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>30</v>
@@ -2196,7 +2199,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="23"/>
       <c r="G18" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H18" s="24">
         <v>16</v>
@@ -2205,7 +2208,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>29</v>
@@ -2261,7 +2264,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>29</v>
@@ -2321,7 +2324,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>29</v>
@@ -2377,7 +2380,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>30</v>
@@ -2390,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P21" s="17" t="s">
         <v>29</v>
@@ -2405,7 +2408,7 @@
         <v>36</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U21" s="20" t="s">
         <v>37</v>
@@ -2428,7 +2431,7 @@
       <c r="E22" s="26"/>
       <c r="F22" s="23"/>
       <c r="G22" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2437,7 +2440,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>30</v>
@@ -2450,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P22" s="17" t="s">
         <v>29</v>
@@ -2465,7 +2468,7 @@
         <v>36</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U22" s="20" t="s">
         <v>37</v>
@@ -2490,7 +2493,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -2541,7 +2544,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="23"/>
@@ -2555,7 +2558,7 @@
         <v>32</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>29</v>
@@ -2597,7 +2600,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="23"/>
@@ -2611,7 +2614,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>29</v>
@@ -2653,7 +2656,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="23"/>
@@ -2667,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>29</v>
@@ -2709,7 +2712,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="23"/>
@@ -2723,7 +2726,7 @@
         <v>32</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>29</v>
@@ -2765,12 +2768,12 @@
         <v>49</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="23"/>
       <c r="G28" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -2779,7 +2782,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>29</v>
@@ -2823,12 +2826,12 @@
         <v>49</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="23"/>
       <c r="G29" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H29" s="11">
         <v>27</v>
@@ -2837,7 +2840,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>29</v>
@@ -2881,7 +2884,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>31</v>
@@ -2897,7 +2900,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>29</v>
@@ -2939,12 +2942,12 @@
         <v>49</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H31" s="11">
         <v>29</v>
@@ -2953,7 +2956,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K31" s="37" t="s">
         <v>30</v>
@@ -2964,7 +2967,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="17"/>
       <c r="O31" s="16" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="P31" s="17" t="s">
         <v>29</v>
@@ -2997,12 +3000,12 @@
         <v>49</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="23"/>
       <c r="G32" s="32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -3011,7 +3014,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K32" s="37" t="s">
         <v>30</v>
@@ -3022,7 +3025,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="17"/>
       <c r="O32" s="16" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="P32" s="17" t="s">
         <v>29</v>
@@ -3055,7 +3058,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="23"/>
@@ -3069,7 +3072,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>30</v>
@@ -3101,7 +3104,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="23"/>
@@ -3114,8 +3117,8 @@
       <c r="I34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="33" t="s">
-        <v>110</v>
+      <c r="J34" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>29</v>
@@ -3125,7 +3128,7 @@
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>41</v>
@@ -3161,12 +3164,12 @@
         <v>49</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="23"/>
       <c r="G35" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H35" s="11">
         <v>33</v>
@@ -3183,10 +3186,10 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P35" s="17" t="s">
         <v>30</v>
@@ -3201,7 +3204,7 @@
         <v>36</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U35" s="20" t="s">
         <v>37</v>
@@ -3224,6 +3227,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3238,12 +3247,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V10">

--- a/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
@@ -243,9 +243,6 @@
     <t>En la presentación colocar imágenes que rerpesenten situaciones que se representen con números decimales, por ejemplo, una competencia de natación oo atletismo. Precios. Cantidades en gramos o kilogramos, etc. En cada ficha dar la explicación del algoritmo correspondiente y mostrar el desarrollo de una situación. Además incluir si es posible las propiedades. Proponer practica.</t>
   </si>
   <si>
-    <t>Ejercicios de practica de adición y sustracción de números decimales</t>
-  </si>
-  <si>
     <t>En el motor aleatorio, seleccionar las opciones suma y resta (únicamente). Seleccionar nivel 2 en complejidad.</t>
   </si>
   <si>
@@ -306,12 +303,6 @@
     <t>Actividades sobre El redondeo de números decimales</t>
   </si>
   <si>
-    <t>Practica operaciones combinadas</t>
-  </si>
-  <si>
-    <t>Resuelve operaciones combinados con números decimales</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La adición y la sustracción de números decimales</t>
   </si>
   <si>
@@ -420,9 +411,6 @@
     <t>Actividad de práctica de la adición y la sustracción de números decimales</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para identificar las propiedades de la adición </t>
-  </si>
-  <si>
     <t>Dar ejemplos en los cuales se apliquen las propiedades de la adición de númerps decimales. Los estudiantes deberán identicar cuál es la propiedad que corresponde.</t>
   </si>
   <si>
@@ -498,9 +486,6 @@
     <t>Interactivo que resume aspectos básicos sobre las operaciones con números decimales</t>
   </si>
   <si>
-    <t>Resuelve problemas desarrollando operaciones combinadas</t>
-  </si>
-  <si>
     <t>Actividad para solucionar problemas con operaciones combinadas entre decimales</t>
   </si>
   <si>
@@ -535,6 +520,21 @@
   </si>
   <si>
     <t>Evalúa tus conocimientos sobre Las operaciones con números decimales</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las propiedades de la adición de decimales</t>
+  </si>
+  <si>
+    <t>Ejercicios de práctica de adición y sustracción de números decimales</t>
+  </si>
+  <si>
+    <t>Practica operaciones combinadas con decimales</t>
+  </si>
+  <si>
+    <t>Resuelve operaciones combinadas con números decimales</t>
+  </si>
+  <si>
+    <t>Resuelve problemas mediante operaciones combinadas</t>
   </si>
 </sst>
 </file>
@@ -830,6 +830,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,15 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1214,82 +1214,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="44"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="38" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="39" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="50"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="39"/>
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
@@ -1316,12 +1316,12 @@
         <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>30</v>
@@ -1361,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W3" s="22"/>
     </row>
@@ -1376,12 +1376,12 @@
         <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="23"/>
       <c r="G4" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" s="24">
         <v>2</v>
@@ -1390,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>29</v>
@@ -1432,12 +1432,12 @@
         <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="23"/>
       <c r="G5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>30</v>
@@ -1459,7 +1459,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>30</v>
@@ -1492,12 +1492,12 @@
         <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="23"/>
       <c r="G6" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H6" s="24">
         <v>4</v>
@@ -1506,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>30</v>
@@ -1519,7 +1519,7 @@
         <v>26</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>29</v>
@@ -1531,13 +1531,13 @@
         <v>35</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W6" s="22"/>
     </row>
@@ -1552,12 +1552,12 @@
         <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="23"/>
       <c r="G7" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -1566,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>29</v>
@@ -1608,12 +1608,12 @@
         <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="23"/>
       <c r="G8" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -1622,7 +1622,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>30</v>
@@ -1635,7 +1635,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>29</v>
@@ -1668,14 +1668,14 @@
         <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H9" s="11">
         <v>7</v>
@@ -1684,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>29</v>
@@ -1705,13 +1705,13 @@
         <v>38</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W9" s="22"/>
     </row>
@@ -1726,12 +1726,12 @@
         <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="23"/>
       <c r="G10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -1740,7 +1740,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>30</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>29</v>
@@ -1768,10 +1768,10 @@
         <v>34</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W10" s="22"/>
     </row>
@@ -1786,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="23"/>
@@ -1800,7 +1800,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>29</v>
@@ -1842,7 +1842,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="23"/>
@@ -1856,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>29</v>
@@ -1898,12 +1898,12 @@
         <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="23"/>
       <c r="G13" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
@@ -1912,7 +1912,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>30</v>
@@ -1925,7 +1925,7 @@
         <v>25</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>29</v>
@@ -1940,7 +1940,7 @@
         <v>36</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U13" s="20" t="s">
         <v>37</v>
@@ -1958,7 +1958,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>31</v>
@@ -1974,7 +1974,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>29</v>
@@ -1995,13 +1995,13 @@
         <v>38</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T14" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W14" s="22"/>
     </row>
@@ -2016,12 +2016,12 @@
         <v>49</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="23"/>
       <c r="G15" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -2030,7 +2030,7 @@
         <v>32</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>30</v>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>29</v>
@@ -2058,10 +2058,10 @@
         <v>34</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W15" s="22"/>
     </row>
@@ -2076,12 +2076,12 @@
         <v>49</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="23"/>
       <c r="G16" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2090,7 +2090,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>29</v>
@@ -2101,7 +2101,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>29</v>
@@ -2134,12 +2134,12 @@
         <v>49</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="23"/>
       <c r="G17" s="27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2148,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>30</v>
@@ -2161,7 +2161,7 @@
         <v>24</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>29</v>
@@ -2194,12 +2194,12 @@
         <v>49</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="23"/>
       <c r="G18" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H18" s="24">
         <v>16</v>
@@ -2208,7 +2208,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>29</v>
@@ -2250,12 +2250,12 @@
         <v>49</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="23"/>
       <c r="G19" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="11">
         <v>17</v>
@@ -2264,7 +2264,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>29</v>
@@ -2275,7 +2275,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="17"/>
       <c r="O19" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>30</v>
@@ -2308,14 +2308,14 @@
         <v>49</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="24">
         <v>18</v>
@@ -2324,7 +2324,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>29</v>
@@ -2345,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T20" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W20" s="22"/>
     </row>
@@ -2371,7 +2371,7 @@
       <c r="E21" s="26"/>
       <c r="F21" s="23"/>
       <c r="G21" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2380,7 +2380,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>30</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P21" s="17" t="s">
         <v>29</v>
@@ -2408,7 +2408,7 @@
         <v>36</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="U21" s="20" t="s">
         <v>37</v>
@@ -2431,7 +2431,7 @@
       <c r="E22" s="26"/>
       <c r="F22" s="23"/>
       <c r="G22" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2440,7 +2440,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>30</v>
@@ -2453,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P22" s="17" t="s">
         <v>29</v>
@@ -2468,7 +2468,7 @@
         <v>36</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U22" s="20" t="s">
         <v>37</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -2502,7 +2502,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>29</v>
@@ -2526,7 +2526,7 @@
         <v>55</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U23" s="20" t="s">
         <v>57</v>
@@ -2544,7 +2544,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="23"/>
@@ -2558,7 +2558,7 @@
         <v>32</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>29</v>
@@ -2600,12 +2600,12 @@
         <v>49</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="23"/>
       <c r="G25" s="27" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="H25" s="11">
         <v>23</v>
@@ -2614,7 +2614,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>29</v>
@@ -2656,12 +2656,12 @@
         <v>49</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="23"/>
       <c r="G26" s="27" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -2670,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>29</v>
@@ -2712,7 +2712,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="23"/>
@@ -2726,7 +2726,7 @@
         <v>32</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>29</v>
@@ -2768,12 +2768,12 @@
         <v>49</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="23"/>
       <c r="G28" s="27" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -2782,7 +2782,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>29</v>
@@ -2793,7 +2793,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="17"/>
       <c r="O28" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P28" s="17" t="s">
         <v>29</v>
@@ -2826,12 +2826,12 @@
         <v>49</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="23"/>
       <c r="G29" s="27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H29" s="11">
         <v>27</v>
@@ -2840,7 +2840,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>29</v>
@@ -2851,7 +2851,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="17"/>
       <c r="O29" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P29" s="17" t="s">
         <v>30</v>
@@ -2884,7 +2884,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>31</v>
@@ -2900,7 +2900,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>29</v>
@@ -2942,12 +2942,12 @@
         <v>49</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H31" s="11">
         <v>29</v>
@@ -2956,7 +2956,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K31" s="37" t="s">
         <v>30</v>
@@ -2967,7 +2967,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="17"/>
       <c r="O31" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P31" s="17" t="s">
         <v>29</v>
@@ -2982,7 +2982,7 @@
         <v>55</v>
       </c>
       <c r="T31" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U31" s="20" t="s">
         <v>57</v>
@@ -3000,12 +3000,12 @@
         <v>49</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="23"/>
       <c r="G32" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -3014,7 +3014,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K32" s="37" t="s">
         <v>30</v>
@@ -3025,7 +3025,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="17"/>
       <c r="O32" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P32" s="17" t="s">
         <v>29</v>
@@ -3040,7 +3040,7 @@
         <v>55</v>
       </c>
       <c r="T32" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U32" s="20" t="s">
         <v>57</v>
@@ -3058,7 +3058,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="23"/>
@@ -3072,7 +3072,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>30</v>
@@ -3104,7 +3104,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="23"/>
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>29</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>41</v>
@@ -3164,12 +3164,12 @@
         <v>49</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="23"/>
       <c r="G35" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H35" s="11">
         <v>33</v>
@@ -3186,10 +3186,10 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P35" s="17" t="s">
         <v>30</v>
@@ -3204,7 +3204,7 @@
         <v>36</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U35" s="20" t="s">
         <v>37</v>
@@ -3227,12 +3227,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3247,6 +3241,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V10">

--- a/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/Escaleta_MA_06_08_CO.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14320"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -830,6 +830,39 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,39 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1214,82 +1214,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="47"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="38" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="50" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="39"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="50"/>
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
@@ -3227,6 +3227,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3241,12 +3247,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V10">
